--- a/Relay_indication.xlsx
+++ b/Relay_indication.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-10 14:11:59</t>
+          <t>2025-03-29 19:26:58</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
